--- a/Batch_2_feb.xlsx
+++ b/Batch_2_feb.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swkalamk\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\KiteZeroDha1\27feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A10E5F2-C3C6-445C-8821-1812216244FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C846982D-E926-4F6F-8D1A-9F22A33E7A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C873A191-2782-44EC-8D45-82EA6A9953D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C873A191-2782-44EC-8D45-82EA6A9953D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="36">
   <si>
     <t>Velocity Corporate Tranning Center Pune, Katraj Branch</t>
   </si>
@@ -129,12 +127,6 @@
     <t>Kiran Kalyan Mundhe</t>
   </si>
   <si>
-    <t>Kotkar Arti Lahanu</t>
-  </si>
-  <si>
-    <t>Koustubh V Kulkarni</t>
-  </si>
-  <si>
     <t>Krushndas Onkar Chaudhari</t>
   </si>
   <si>
@@ -148,18 +140,6 @@
   </si>
   <si>
     <t>Mahendrasing Yuvraj Rajput</t>
-  </si>
-  <si>
-    <t>Mahesh Vilas Shinde</t>
-  </si>
-  <si>
-    <t>Mayuri Ratnaparkhi</t>
-  </si>
-  <si>
-    <t>Milind Ashok Mahajan</t>
-  </si>
-  <si>
-    <t>Minal Dhananjay Padman</t>
   </si>
 </sst>
 </file>
@@ -170,7 +150,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Mangal"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -382,6 +362,36 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,36 +405,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -741,741 +721,603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440FA1DB-A45A-46E4-BD1C-54A4E24BBCA9}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A23" sqref="A23:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="27.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9">
+    <row r="7" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12">
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="11">
-        <v>4</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
         <v>3.5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="5">
         <v>3.5</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="5">
         <v>3.5</v>
       </c>
-      <c r="G8" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9">
+      <c r="G8" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9">
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11">
-        <v>4</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="5">
         <v>3.5</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="12">
+    <row r="12" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9">
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="12">
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="5">
         <v>3.5</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="5">
         <v>3.5</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="5">
         <v>3.5</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="5">
         <v>3.5</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="8">
         <f>C14+D14+E14+F14</f>
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9">
+    <row r="15" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="5">
         <v>3.5</v>
       </c>
-      <c r="D15" s="11">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5">
         <v>3.5</v>
       </c>
-      <c r="F15" s="11">
-        <v>4</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="F15" s="5">
+        <v>4</v>
+      </c>
+      <c r="G15" s="9">
         <f>C15+D15+E15+F15</f>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="12">
+    <row r="16" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="5">
         <v>3.5</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="5">
         <v>3.5</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="5">
         <v>3</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="5">
         <v>3</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9">
+    <row r="17" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A17" s="3">
         <v>11</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="5">
         <v>3.5</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="5">
         <v>3</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="5">
         <v>3</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="12">
+    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="11">
-        <v>4</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5">
         <v>4.5</v>
       </c>
-      <c r="E18" s="11">
-        <v>4</v>
-      </c>
-      <c r="F18" s="11">
-        <v>4</v>
-      </c>
-      <c r="G18" s="14">
+      <c r="E18" s="5">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4</v>
+      </c>
+      <c r="G18" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="9">
+    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="12">
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="9">
-        <v>15</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A21" s="3">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="11">
-        <v>4</v>
-      </c>
-      <c r="D21" s="11">
-        <v>4</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="C21" s="5">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5">
         <v>4.5</v>
       </c>
-      <c r="F21" s="11">
-        <v>4</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="F21" s="5">
+        <v>4</v>
+      </c>
+      <c r="G21" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12">
+    <row r="22" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="9">
-        <v>17</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="D23" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="E23" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="F23" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="G23" s="15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="12">
-        <v>18</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A24" s="6">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="9">
-        <v>19</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="12">
-        <v>20</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4</v>
+      </c>
+      <c r="F25" s="5">
+        <v>4</v>
+      </c>
+      <c r="G25" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A26" s="6">
+        <v>22</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="9">
-        <v>21</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A27" s="3">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="11">
-        <v>4</v>
-      </c>
-      <c r="D27" s="11">
-        <v>4</v>
-      </c>
-      <c r="E27" s="11">
-        <v>4</v>
-      </c>
-      <c r="F27" s="11">
-        <v>4</v>
-      </c>
-      <c r="G27" s="15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="12">
-        <v>22</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="9">
-        <v>23</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="12">
-        <v>24</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="9">
-        <v>25</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="12">
-        <v>26</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="9">
-        <v>27</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="11" t="s">
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
